--- a/spreadsheets/metro_budget_exercise.xlsx
+++ b/spreadsheets/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgood\Documents\nss_data_analytics\projects\lookups-budget-marthahunter\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93281008-3C11-4A48-A30C-C93D175A9610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A495CBE-615E-4270-8E1D-546AD3006E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -765,7 +766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -809,8 +810,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -827,8 +830,14 @@
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="33" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -857,6 +866,7 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="42" builtinId="3"/>
+    <cellStyle name="Currency" xfId="43" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -869,6 +879,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="44" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1185,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1195,11 +1206,15 @@
     <col min="2" max="4" width="26.265625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.86328125" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
-    <col min="8" max="8" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.86328125" customWidth="1"/>
-    <col min="13" max="13" width="15.3984375" customWidth="1"/>
-    <col min="14" max="15" width="17.86328125" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="26.265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.86328125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="15.86328125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="15.86328125" customWidth="1"/>
+    <col min="12" max="12" width="15.86328125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="15.3984375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="17.73046875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="17.86328125" style="15" customWidth="1"/>
     <col min="16" max="17" width="13.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1222,31 +1237,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -1257,13 +1272,13 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="12">
         <v>356640100</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="12">
         <v>341243679.13</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="12">
         <f>C2-B2</f>
         <v>-15396420.870000005</v>
       </c>
@@ -1275,32 +1290,54 @@
         <f>IFERROR((RANK(E2,$E:$E, 1)), "")</f>
         <v>14</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="12">
         <v>382685200</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="12">
         <v>346340810.81999999</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="L2">
+      <c r="I2" s="12">
+        <f>H2-G2</f>
+        <v>-36344389.180000007</v>
+      </c>
+      <c r="J2" s="5">
+        <f>IFERROR(I2/G2, "")</f>
+        <v>-9.4972027086493035E-2</v>
+      </c>
+      <c r="K2">
+        <f>IFERROR((RANK(J2,$J:$J, 1)), "")</f>
+        <v>10</v>
+      </c>
+      <c r="L2" s="12">
         <v>376548600</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="12">
         <v>355279492.22999901</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="N2" s="12">
+        <f>M2-L2</f>
+        <v>-21269107.770000994</v>
+      </c>
+      <c r="O2" s="5">
+        <f>IFERROR(N2/L2, "")</f>
+        <v>-5.6484362894991494E-2</v>
+      </c>
+      <c r="P2">
+        <f>IFERROR((RANK(O2,$O:$O, 1)), "")</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="12">
         <v>328800</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="12">
         <v>321214.59000000003</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D52" si="0">C3-B3</f>
         <v>-7585.4099999999744</v>
       </c>
@@ -1312,32 +1349,54 @@
         <f t="shared" ref="F3:F52" si="2">IFERROR((RANK(E3,$E:$E, 1)), "")</f>
         <v>22</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="12">
         <v>334800</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="12">
         <v>312433.70999999897</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="L3">
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I52" si="3">H3-G3</f>
+        <v>-22366.290000001027</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J52" si="4">IFERROR(I3/G3, "")</f>
+        <v>-6.6804928315415249E-2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K52" si="5">IFERROR((RANK(J3,$J:$J, 1)), "")</f>
+        <v>14</v>
+      </c>
+      <c r="L3" s="12">
         <v>322700</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="12">
         <v>322263.03999999998</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="N3" s="12">
+        <f t="shared" ref="N3:N52" si="6">M3-L3</f>
+        <v>-436.96000000002095</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O52" si="7">IFERROR(N3/L3, "")</f>
+        <v>-1.3540749922529313E-3</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P52" si="8">IFERROR((RANK(O3,$O:$O, 1)), "")</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="12">
         <v>3130600</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="12">
         <v>3115157.5599999898</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>-15442.440000010189</v>
       </c>
@@ -1349,32 +1408,54 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="12">
         <v>3652300</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="12">
         <v>3589693.2099999902</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="L4">
+      <c r="I4" s="12">
+        <f t="shared" si="3"/>
+        <v>-62606.790000009816</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.7141743558856015E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="L4" s="12">
         <v>3662400</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="12">
         <v>3564983.04999999</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="N4" s="12">
+        <f t="shared" si="6"/>
+        <v>-97416.950000009965</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.6599210899959033E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="12">
         <v>7670700</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="12">
         <v>6947552.6699999999</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>-723147.33000000007</v>
       </c>
@@ -1386,32 +1467,54 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="12">
         <v>7968300</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="12">
         <v>7020609.3200000003</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="L5">
+      <c r="I5" s="12">
+        <f t="shared" si="3"/>
+        <v>-947690.6799999997</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.118932605449092</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="12">
         <v>7759600</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="12">
         <v>7497322.9100000001</v>
       </c>
-      <c r="O5" s="5"/>
+      <c r="N5" s="12">
+        <f t="shared" si="6"/>
+        <v>-262277.08999999985</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.3800336357544182E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="12">
         <v>409300</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="12">
         <v>385908.52</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>-23391.479999999981</v>
       </c>
@@ -1423,32 +1526,54 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="12">
         <v>428500</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="12">
         <v>427758.64</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="L6">
+      <c r="I6" s="12">
+        <f t="shared" si="3"/>
+        <v>-741.35999999998603</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.7301283547257551E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="L6" s="12">
         <v>445200</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="12">
         <v>445114.28999999899</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="N6" s="12">
+        <f t="shared" si="6"/>
+        <v>-85.710000001010485</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.925202156356929E-4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="12">
         <v>3329000</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="12">
         <v>2946071.21</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>-382928.79000000004</v>
       </c>
@@ -1460,32 +1585,54 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
         <v>3390900</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="12">
         <v>3051483.41</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="L7">
+      <c r="I7" s="12">
+        <f t="shared" si="3"/>
+        <v>-339416.58999999985</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.10009631366303927</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="L7" s="12">
         <v>3345200</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="12">
         <v>2946440.08</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="N7" s="12">
+        <f t="shared" si="6"/>
+        <v>-398759.91999999993</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.11920361114432618</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="12">
         <v>1552100</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="12">
         <v>1315623.30999999</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>-236476.69000000996</v>
       </c>
@@ -1497,32 +1644,54 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="12">
         <v>1590700</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="12">
         <v>1383905.98999999</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="L8">
+      <c r="I8" s="12">
+        <f t="shared" si="3"/>
+        <v>-206794.01000001002</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.13000189224870184</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="12">
         <v>1579300</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="12">
         <v>1337735.3199999901</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="N8" s="12">
+        <f t="shared" si="6"/>
+        <v>-241564.68000000995</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="12">
         <v>9349400</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="12">
         <v>8952825.2799999993</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>-396574.72000000067</v>
       </c>
@@ -1534,32 +1703,54 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="12">
         <v>11073700</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="12">
         <v>9929059.5199999996</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="L9">
+      <c r="I9" s="12">
+        <f t="shared" si="3"/>
+        <v>-1144640.4800000004</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.10336567542917005</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L9" s="12">
         <v>10790500</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="12">
         <v>9993599.52999999</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="N9" s="12">
+        <f t="shared" si="6"/>
+        <v>-796900.47000000998</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="7"/>
+        <v>-7.3852043000788653E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="12">
         <v>443300</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="12">
         <v>407090.37</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>-36209.630000000005</v>
       </c>
@@ -1571,32 +1762,54 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="12">
         <v>495200</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="12">
         <v>467907.84000000003</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="L10">
+      <c r="I10" s="12">
+        <f t="shared" si="3"/>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="4"/>
+        <v>-5.5113408723747932E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="L10" s="12">
         <v>487500</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="12">
         <v>478318.92</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="N10" s="12">
+        <f t="shared" si="6"/>
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.883298461538465E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="12">
         <v>0</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="12">
         <v>0</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1608,32 +1821,54 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G11">
+      <c r="G11" s="12">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="12">
         <v>0</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="L11">
+      <c r="I11" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L11" s="12">
         <v>375000</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="12">
         <v>63771.91</v>
       </c>
-      <c r="O11" s="5"/>
+      <c r="N11" s="12">
+        <f t="shared" si="6"/>
+        <v>-311228.08999999997</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="12">
         <v>4280900</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="12">
         <v>4066595.33</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>-214304.66999999993</v>
       </c>
@@ -1645,32 +1880,54 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="12">
         <v>4700400</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="12">
         <v>4205555.5999999996</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="L12">
+      <c r="I12" s="12">
+        <f t="shared" si="3"/>
+        <v>-494844.40000000037</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.10527708280146378</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L12" s="12">
         <v>4677800</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="12">
         <v>4371713.1399999997</v>
       </c>
-      <c r="O12" s="5"/>
+      <c r="N12" s="12">
+        <f t="shared" si="6"/>
+        <v>-306086.86000000034</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="7"/>
+        <v>-6.5433934755654441E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="12">
         <v>5847800</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="12">
         <v>5772288.3300000001</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>-75511.669999999925</v>
       </c>
@@ -1682,32 +1939,54 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="12">
         <v>6223700</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="12">
         <v>5909077.9399999902</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="L13">
+      <c r="I13" s="12">
+        <f t="shared" si="3"/>
+        <v>-314622.06000000983</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="4"/>
+        <v>-5.0552253482656594E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="L13" s="12">
         <v>6207300</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="12">
         <v>6056976.6699999999</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="N13" s="12">
+        <f t="shared" si="6"/>
+        <v>-150323.33000000007</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.4217184605222895E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="12">
         <v>512000</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="12">
         <v>505017.37</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>-6982.6300000000047</v>
       </c>
@@ -1719,32 +1998,54 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="12">
         <v>530500</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="12">
         <v>524402.98</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="L14">
+      <c r="I14" s="12">
+        <f t="shared" si="3"/>
+        <v>-6097.0200000000186</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.1492968897266765E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="L14" s="12">
         <v>526200</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="12">
         <v>504989.88</v>
       </c>
-      <c r="O14" s="5"/>
+      <c r="N14" s="12">
+        <f t="shared" si="6"/>
+        <v>-21210.119999999995</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="7"/>
+        <v>-4.0308095781071827E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="12">
         <v>156049100</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="12">
         <v>156545919.90000001</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>496819.90000000596</v>
       </c>
@@ -1756,32 +2057,54 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="12">
         <v>184167800</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="12">
         <v>175966389.24999899</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="L15">
+      <c r="I15" s="12">
+        <f t="shared" si="3"/>
+        <v>-8201410.7500010133</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.4532273014072019E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="L15" s="12">
         <v>188953500</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="12">
         <v>184450910.84999901</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="N15" s="12">
+        <f t="shared" si="6"/>
+        <v>-4502589.1500009894</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.3829085727446114E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="12">
         <v>6600700</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="12">
         <v>6522480.4599999897</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>-78219.540000010282</v>
       </c>
@@ -1793,32 +2116,54 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="12">
         <v>7352500</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="12">
         <v>7350464.0800000001</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="L16">
+      <c r="I16" s="12">
+        <f t="shared" si="3"/>
+        <v>-2035.9199999999255</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.769017341040361E-4</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="L16" s="12">
         <v>7397200</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="12">
         <v>7397093</v>
       </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N16" s="12">
+        <f t="shared" si="6"/>
+        <v>-107</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.4464932677229222E-5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="12">
         <v>14860800</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="12">
         <v>14439480.050000001</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>-421319.94999999925</v>
       </c>
@@ -1830,32 +2175,54 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="12">
         <v>15309700</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="12">
         <v>14645233.51</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="L17">
+      <c r="I17" s="12">
+        <f t="shared" si="3"/>
+        <v>-664466.49000000022</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.3401666263871937E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="L17" s="12">
         <v>15311800</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="12">
         <v>14346057.039999999</v>
       </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N17" s="12">
+        <f t="shared" si="6"/>
+        <v>-965742.96000000089</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="7"/>
+        <v>-6.3071811282801551E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="12">
         <v>2764700</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="12">
         <v>2615303.8999999901</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>-149396.10000000987</v>
       </c>
@@ -1867,32 +2234,54 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="12">
         <v>2861000</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="12">
         <v>2671745.94</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="L18">
+      <c r="I18" s="12">
+        <f t="shared" si="3"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="4"/>
+        <v>-6.6149619014330668E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="L18" s="12">
         <v>2910600</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="12">
         <v>2535637.09</v>
       </c>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N18" s="12">
+        <f t="shared" si="6"/>
+        <v>-374962.91000000015</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.12882667147667154</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="12">
         <v>8837300</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="12">
         <v>8460963.1999999899</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>-376336.80000001006</v>
       </c>
@@ -1904,32 +2293,54 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="12">
         <v>9713300</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="12">
         <v>8991707.2399999909</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="L19">
+      <c r="I19" s="12">
+        <f t="shared" si="3"/>
+        <v>-721592.76000000909</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="4"/>
+        <v>-7.4289145810384635E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="L19" s="12">
         <v>9343000</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="12">
         <v>8766655.9100000001</v>
       </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N19" s="12">
+        <f t="shared" si="6"/>
+        <v>-576344.08999999985</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="7"/>
+        <v>-6.1687262121374278E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="12">
         <v>124385900</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="12">
         <v>124384360.159999</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>-1539.8400010019541</v>
       </c>
@@ -1941,32 +2352,54 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="12">
         <v>131849400</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="12">
         <v>131839624.37</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="L20">
+      <c r="I20" s="12">
+        <f t="shared" si="3"/>
+        <v>-9775.6299999952316</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="4"/>
+        <v>-7.4142392760188761E-5</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="L20" s="12">
         <v>130621400</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="12">
         <v>130621283.53999899</v>
       </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N20" s="12">
+        <f t="shared" si="6"/>
+        <v>-116.46000100672245</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="7"/>
+        <v>-8.9158438821450736E-7</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="12">
         <v>24332100</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="12">
         <v>22408587.5499999</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>-1923512.4500000998</v>
       </c>
@@ -1978,32 +2411,54 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="12">
         <v>24497400</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="12">
         <v>22655993.629999999</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="L21">
+      <c r="I21" s="12">
+        <f t="shared" si="3"/>
+        <v>-1841406.370000001</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="4"/>
+        <v>-7.5167420624229556E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="L21" s="12">
         <v>24323000</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="12">
         <v>23434073.089999899</v>
       </c>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N21" s="12">
+        <f t="shared" si="6"/>
+        <v>-888926.91000010073</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.6546762734864152E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="12">
         <v>11566000</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="12">
         <v>11412339.8799999</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>-153660.12000009976</v>
       </c>
@@ -2015,32 +2470,54 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="12">
         <v>11980700</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="12">
         <v>11791977.9699999</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="L22">
+      <c r="I22" s="12">
+        <f t="shared" si="3"/>
+        <v>-188722.03000009991</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.5752170574348738E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="L22" s="12">
         <v>11935200</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="12">
         <v>11934454.77</v>
       </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N22" s="12">
+        <f t="shared" si="6"/>
+        <v>-745.23000000044703</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="7"/>
+        <v>-6.2439674240938325E-5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="12">
         <v>20862700</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="12">
         <v>20036743.4099999</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="12">
         <f t="shared" si="0"/>
         <v>-825956.59000010043</v>
       </c>
@@ -2052,32 +2529,54 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="12">
         <v>22683800</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="12">
         <v>21722126.219999898</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="L23">
+      <c r="I23" s="12">
+        <f t="shared" si="3"/>
+        <v>-961673.78000010177</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.2394738976719144E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="L23" s="12">
         <v>23220300</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="12">
         <v>22619057.440000001</v>
       </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N23" s="12">
+        <f t="shared" si="6"/>
+        <v>-601242.55999999866</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.5892971236375011E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="12">
         <v>917200</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="12">
         <v>904969.19</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="12">
         <f t="shared" si="0"/>
         <v>-12230.810000000056</v>
       </c>
@@ -2089,32 +2588,54 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="12">
         <v>1112700</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="12">
         <v>1067214.42</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="L24">
+      <c r="I24" s="12">
+        <f t="shared" si="3"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.087856565111897E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L24" s="12">
         <v>1112600</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="12">
         <v>1112527.1200000001</v>
       </c>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N24" s="12">
+        <f t="shared" si="6"/>
+        <v>-72.879999999888241</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="7"/>
+        <v>-6.5504224339284781E-5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="12">
         <v>484100</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="12">
         <v>479149.53</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="12">
         <f t="shared" si="0"/>
         <v>-4950.4699999999721</v>
       </c>
@@ -2126,32 +2647,54 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="12">
         <v>505200</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="12">
         <v>497194.20999999897</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="L25">
+      <c r="I25" s="12">
+        <f t="shared" si="3"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.5846773555029746E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="L25" s="12">
         <v>496500</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="12">
         <v>494775.1</v>
       </c>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N25" s="12">
+        <f t="shared" si="6"/>
+        <v>-1724.9000000000233</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.4741188318228064E-3</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="12">
         <v>5249800</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="12">
         <v>4801960.08</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>-447839.91999999993</v>
       </c>
@@ -2163,32 +2706,54 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="12">
         <v>5442200</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="12">
         <v>5122329.02999999</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="L26">
+      <c r="I26" s="12">
+        <f t="shared" si="3"/>
+        <v>-319870.97000000998</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="4"/>
+        <v>-5.8776040939327839E-2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="L26" s="12">
         <v>5430700</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="12">
         <v>5117235.21</v>
       </c>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N26" s="12">
+        <f t="shared" si="6"/>
+        <v>-313464.79000000004</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="7"/>
+        <v>-5.7720881286022069E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="12">
         <v>0</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="12">
         <v>0</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2200,32 +2765,54 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G27">
+      <c r="G27" s="12">
         <v>0</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="12">
         <v>0</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="L27">
+      <c r="I27" s="12">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="J27" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L27" s="12">
         <v>0</v>
       </c>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+      <c r="N27" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="12">
         <v>1382900</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="12">
         <v>1250442.02</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="12">
         <f t="shared" si="0"/>
         <v>-132457.97999999998</v>
       </c>
@@ -2237,32 +2824,54 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="12">
         <v>1545700</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="12">
         <v>1281335.23</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="L28">
+      <c r="I28" s="12">
+        <f t="shared" si="3"/>
+        <v>-264364.77</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="12">
         <v>1525900</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="12">
         <v>1393285.06</v>
       </c>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N28" s="12">
+        <f t="shared" si="6"/>
+        <v>-132614.93999999994</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="7"/>
+        <v>-8.6909325643882263E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="12">
         <v>2561800</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="12">
         <v>2523884.71</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="12">
         <f t="shared" si="0"/>
         <v>-37915.290000000037</v>
       </c>
@@ -2274,32 +2883,54 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="12">
         <v>2779500</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="12">
         <v>2665264.4399999902</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="L29">
+      <c r="I29" s="12">
+        <f t="shared" si="3"/>
+        <v>-114235.56000000983</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.1099320021590155E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="L29" s="12">
         <v>2889900</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="12">
         <v>2889864.67</v>
       </c>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N29" s="12">
+        <f t="shared" si="6"/>
+        <v>-35.330000000074506</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.2225336516860273E-5</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="12">
         <v>12132200</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="12">
         <v>12030494.1</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="12">
         <f t="shared" si="0"/>
         <v>-101705.90000000037</v>
       </c>
@@ -2311,32 +2942,54 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="12">
         <v>12735900</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="12">
         <v>12685514.279999901</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="L30">
+      <c r="I30" s="12">
+        <f t="shared" si="3"/>
+        <v>-50385.720000099391</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.9561962641116366E-3</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="L30" s="12">
         <v>12861300</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="12">
         <v>12826009.609999999</v>
       </c>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N30" s="12">
+        <f t="shared" si="6"/>
+        <v>-35290.390000000596</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.7439209100169185E-3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="12">
         <v>1765600</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="12">
         <v>1740827.69</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="12">
         <f t="shared" si="0"/>
         <v>-24772.310000000056</v>
       </c>
@@ -2348,32 +3001,54 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="12">
         <v>1823300</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="12">
         <v>1762676.85</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="L31">
+      <c r="I31" s="12">
+        <f t="shared" si="3"/>
+        <v>-60623.149999999907</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.3249136181648611E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="L31" s="12">
         <v>1870700</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="12">
         <v>1801391.34</v>
       </c>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N31" s="12">
+        <f t="shared" si="6"/>
+        <v>-69308.659999999916</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.7049585716576634E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="12">
         <v>5999400</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="12">
         <v>5925637.7199999904</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="12">
         <f t="shared" si="0"/>
         <v>-73762.280000009574</v>
       </c>
@@ -2385,32 +3060,54 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="12">
         <v>6195500</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="12">
         <v>6084985.4699999997</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="L32">
+      <c r="I32" s="12">
+        <f t="shared" si="3"/>
+        <v>-110514.53000000026</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.7837871035428981E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="L32" s="12">
         <v>6157400</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="12">
         <v>5987572.0199999996</v>
       </c>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N32" s="12">
+        <f t="shared" si="6"/>
+        <v>-169827.98000000045</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.7581118653977402E-2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="12">
         <v>927703099.99999905</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="12">
         <v>920284264.73000002</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="12">
         <f t="shared" si="0"/>
         <v>-7418835.2699990273</v>
       </c>
@@ -2422,32 +3119,54 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="12">
         <v>979671000</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="12">
         <v>977068513.48000002</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="L33">
+      <c r="I33" s="12">
+        <f t="shared" si="3"/>
+        <v>-2602486.5199999809</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.6564903115433454E-3</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="L33" s="12">
         <v>989572899.99999905</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="12">
         <v>984116289.40999901</v>
       </c>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N33" s="12">
+        <f t="shared" si="6"/>
+        <v>-5456610.5900000334</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="7"/>
+        <v>-5.5141067323084929E-3</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="12">
         <v>4189300</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="12">
         <v>4109958.22</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="12">
         <f t="shared" si="0"/>
         <v>-79341.779999999795</v>
       </c>
@@ -2459,32 +3178,54 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="12">
         <v>4350600</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="12">
         <v>4137588.7699999898</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="L34">
+      <c r="I34" s="12">
+        <f t="shared" si="3"/>
+        <v>-213011.23000001023</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.8961345561534093E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="L34" s="12">
         <v>4345600</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="12">
         <v>4229801.51</v>
       </c>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N34" s="12">
+        <f t="shared" si="6"/>
+        <v>-115798.49000000022</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.6647296115611244E-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="12">
         <v>0</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="12">
         <v>0</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2496,32 +3237,54 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G35">
+      <c r="G35" s="12">
         <v>0</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="12">
         <v>0</v>
       </c>
-      <c r="J35" s="5"/>
-      <c r="L35">
+      <c r="I35" s="12">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M35">
+      <c r="J35" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L35" s="12">
         <v>0</v>
       </c>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M35" s="12">
+        <v>0</v>
+      </c>
+      <c r="N35" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="12">
         <v>798200</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="12">
         <v>735423.27999999898</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="12">
         <f t="shared" si="0"/>
         <v>-62776.72000000102</v>
       </c>
@@ -2533,32 +3296,54 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="12">
         <v>898700</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="12">
         <v>740966.94999999902</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="L36">
+      <c r="I36" s="12">
+        <f t="shared" si="3"/>
+        <v>-157733.05000000098</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="12">
         <v>878300</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="12">
         <v>777215.28999999899</v>
       </c>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N36" s="12">
+        <f t="shared" si="6"/>
+        <v>-101084.71000000101</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.11509132414892521</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="12">
         <v>2087800</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="12">
         <v>2005447.73999999</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="12">
         <f t="shared" si="0"/>
         <v>-82352.260000010021</v>
       </c>
@@ -2570,32 +3355,54 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="12">
         <v>2229200</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="12">
         <v>2118943.21</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="L37">
+      <c r="I37" s="12">
+        <f t="shared" si="3"/>
+        <v>-110256.79000000004</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.9460250314014013E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="L37" s="12">
         <v>2296900</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="12">
         <v>2108718.34</v>
       </c>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N37" s="12">
+        <f t="shared" si="6"/>
+        <v>-188181.66000000015</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="7"/>
+        <v>-8.1928538464887526E-2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="12">
         <v>855300</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="12">
         <v>838669.82</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="12">
         <f t="shared" si="0"/>
         <v>-16630.180000000051</v>
       </c>
@@ -2607,32 +3414,54 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="12">
         <v>792800</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="12">
         <v>753451.96</v>
       </c>
-      <c r="J38" s="5"/>
-      <c r="L38">
+      <c r="I38" s="12">
+        <f t="shared" si="3"/>
+        <v>-39348.040000000037</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.9631735620585316E-2</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="L38" s="12">
         <v>777800</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="12">
         <v>777663.26</v>
       </c>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N38" s="12">
+        <f t="shared" si="6"/>
+        <v>-136.73999999999069</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.7580354847003174E-4</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="12">
         <v>883900</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="12">
         <v>813108.87</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="12">
         <f t="shared" si="0"/>
         <v>-70791.13</v>
       </c>
@@ -2644,32 +3473,54 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="12">
         <v>1294400</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="12">
         <v>1114242.27999999</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="L39">
+      <c r="I39" s="12">
+        <f t="shared" si="3"/>
+        <v>-180157.72000000998</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.13918241656366656</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L39" s="12">
         <v>1759500</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="12">
         <v>1680463.8699999901</v>
       </c>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N39" s="12">
+        <f t="shared" si="6"/>
+        <v>-79036.1300000099</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="7"/>
+        <v>-4.4919653310605226E-2</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="12">
         <v>38381900</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="12">
         <v>37565141.859999903</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="12">
         <f t="shared" si="0"/>
         <v>-816758.14000009745</v>
       </c>
@@ -2681,32 +3532,54 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="12">
         <v>39964900</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="12">
         <v>38095240.189999901</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="L40">
+      <c r="I40" s="12">
+        <f t="shared" si="3"/>
+        <v>-1869659.8100000992</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.6782546934937892E-2</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="L40" s="12">
         <v>40216700</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="12">
         <v>39606263.709999897</v>
       </c>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N40" s="12">
+        <f t="shared" si="6"/>
+        <v>-610436.29000010341</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.5178676768608648E-2</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="12">
         <v>4593300</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="12">
         <v>4409060.2099999897</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="12">
         <f t="shared" si="0"/>
         <v>-184239.79000001028</v>
       </c>
@@ -2718,32 +3591,54 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="12">
         <v>5089500</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="12">
         <v>4956043.6699999897</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="L41">
+      <c r="I41" s="12">
+        <f t="shared" si="3"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.6221894095689226E-2</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="L41" s="12">
         <v>4799900</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="12">
         <v>4717822.6500000004</v>
       </c>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N41" s="12">
+        <f t="shared" si="6"/>
+        <v>-82077.349999999627</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.7099804162586642E-2</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="12">
         <v>188593300</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="12">
         <v>188551675.67999899</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="12">
         <f t="shared" si="0"/>
         <v>-41624.320001006126</v>
       </c>
@@ -2755,32 +3650,54 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="12">
         <v>199130300</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="12">
         <v>196755033.31</v>
       </c>
-      <c r="J42" s="5"/>
-      <c r="L42">
+      <c r="I42" s="12">
+        <f t="shared" si="3"/>
+        <v>-2375266.6899999976</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.1928203241796942E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="L42" s="12">
         <v>199954600</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="12">
         <v>199954563.74999899</v>
       </c>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N42" s="12">
+        <f t="shared" si="6"/>
+        <v>-36.250001013278961</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.8129115815929696E-7</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="12">
         <v>8135400</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="12">
         <v>7968645.8300000001</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="12">
         <f t="shared" si="0"/>
         <v>-166754.16999999993</v>
       </c>
@@ -2792,32 +3709,54 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="12">
         <v>8560800</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="12">
         <v>8171472.0199999996</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="L43">
+      <c r="I43" s="12">
+        <f t="shared" si="3"/>
+        <v>-389327.98000000045</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.5477990374731388E-2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="L43" s="12">
         <v>8497500</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="12">
         <v>8150982.5699999901</v>
       </c>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N43" s="12">
+        <f t="shared" si="6"/>
+        <v>-346517.43000000995</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="7"/>
+        <v>-4.0778750220654303E-2</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="12">
         <v>30083200</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="12">
         <v>29789104.379999999</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="12">
         <f t="shared" si="0"/>
         <v>-294095.62000000104</v>
       </c>
@@ -2829,32 +3768,54 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="12">
         <v>31040700</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="12">
         <v>30793711.48</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="L44">
+      <c r="I44" s="12">
+        <f t="shared" si="3"/>
+        <v>-246988.51999999955</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="4"/>
+        <v>-7.9569249404813532E-3</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="L44" s="12">
         <v>31282200</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="12">
         <v>31282141.25</v>
       </c>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N44" s="12">
+        <f t="shared" si="6"/>
+        <v>-58.75</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.8780648419868168E-6</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="12">
         <v>55301600</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="12">
         <v>54589584.0499999</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="12">
         <f t="shared" si="0"/>
         <v>-712015.95000009984</v>
       </c>
@@ -2866,32 +3827,54 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="12">
         <v>56792200</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="12">
         <v>54594953.959999897</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="L45">
+      <c r="I45" s="12">
+        <f t="shared" si="3"/>
+        <v>-2197246.0400001034</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.8689222111488959E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="L45" s="12">
         <v>56027100</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="12">
         <v>55386549.6599999</v>
       </c>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N45" s="12">
+        <f t="shared" si="6"/>
+        <v>-640550.34000010043</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.1432866237947358E-2</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="12">
         <v>259100</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="12">
         <v>258322.43</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="12">
         <f t="shared" si="0"/>
         <v>-777.57000000000698</v>
       </c>
@@ -2903,32 +3886,54 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="12">
         <v>266000</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="12">
         <v>257402.90999999901</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="L46">
+      <c r="I46" s="12">
+        <f t="shared" si="3"/>
+        <v>-8597.090000000986</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.2319887218048821E-2</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L46" s="12">
         <v>267100</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="12">
         <v>254753.15999999901</v>
       </c>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N46" s="12">
+        <f t="shared" si="6"/>
+        <v>-12346.840000000986</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="7"/>
+        <v>-4.6225533508053113E-2</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="12">
         <v>70390700</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="12">
         <v>70378426.719999999</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="12">
         <f t="shared" si="0"/>
         <v>-12273.280000001192</v>
       </c>
@@ -2940,32 +3945,54 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="12">
         <v>73467000</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="12">
         <v>73442541.659999996</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="L47">
+      <c r="I47" s="12">
+        <f t="shared" si="3"/>
+        <v>-24458.340000003576</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.3291600310348285E-4</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="L47" s="12">
         <v>75072800</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="12">
         <v>75050829.179999903</v>
       </c>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N47" s="12">
+        <f t="shared" si="6"/>
+        <v>-21970.820000097156</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.9266019117572752E-4</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="12">
         <v>6737100</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="12">
         <v>6527352.5699999901</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="12">
         <f t="shared" si="0"/>
         <v>-209747.43000000995</v>
       </c>
@@ -2977,32 +4004,54 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="12">
         <v>7214700</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="12">
         <v>6922072.5599999996</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="L48">
+      <c r="I48" s="12">
+        <f t="shared" si="3"/>
+        <v>-292627.44000000041</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.0559890224125802E-2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="L48" s="12">
         <v>7289800</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="12">
         <v>6882350.23999999</v>
       </c>
-      <c r="O48" s="5"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N48" s="12">
+        <f t="shared" si="6"/>
+        <v>-407449.76000001002</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="7"/>
+        <v>-5.5893132870587676E-2</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="12">
         <v>92200</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="12">
         <v>90499.43</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="12">
         <f t="shared" si="0"/>
         <v>-1700.570000000007</v>
       </c>
@@ -3014,32 +4063,54 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="12">
         <v>102600</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="12">
         <v>95466.880000000005</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="L49">
+      <c r="I49" s="12">
+        <f t="shared" si="3"/>
+        <v>-7133.1199999999953</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="4"/>
+        <v>-6.9523586744639335E-2</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="L49" s="12">
         <v>0</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="12">
         <v>0</v>
       </c>
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N49" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="12">
         <v>832600</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="12">
         <v>832600</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3051,32 +4122,54 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="12">
         <v>859100</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="12">
         <v>859100</v>
       </c>
-      <c r="J50" s="5"/>
-      <c r="L50">
+      <c r="I50" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="L50" s="12">
         <v>843200</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="12">
         <v>843200</v>
       </c>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N50" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="12">
         <v>8609500</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="12">
         <v>8499425.3399999905</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="12">
         <f t="shared" si="0"/>
         <v>-110074.66000000946</v>
       </c>
@@ -3088,32 +4181,54 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="12">
         <v>8925500</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="12">
         <v>8599059.6199999992</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="L51">
+      <c r="I51" s="12">
+        <f t="shared" si="3"/>
+        <v>-326440.38000000082</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.6573903982970231E-2</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="L51" s="12">
         <v>8833900</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="12">
         <v>8735843.3100000005</v>
       </c>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N51" s="12">
+        <f t="shared" si="6"/>
+        <v>-98056.689999999478</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.1100045280114048E-2</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="12">
         <v>2451000</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="12">
         <v>2254684.7999999998</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="12">
         <f t="shared" si="0"/>
         <v>-196315.20000000019</v>
       </c>
@@ -3125,76 +4240,186 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="12">
         <v>2440700</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="12">
         <v>2204672.88</v>
       </c>
-      <c r="J52" s="5"/>
-      <c r="L52">
+      <c r="I52" s="12">
+        <f t="shared" si="3"/>
+        <v>-236027.12000000011</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="4"/>
+        <v>-9.6704683082722218E-2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="L52" s="12">
         <v>2321600</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="12">
         <v>2056835.26</v>
       </c>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N52" s="12">
+        <f t="shared" si="6"/>
+        <v>-264764.74</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.11404408166781529</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B56" s="12">
+        <f>VLOOKUP($A56,$A$1:$P$52, 4, FALSE)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C56" s="12">
+        <f>VLOOKUP($A56,$A$1:$P$52, 9, FALSE)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D56" s="12">
+        <f>VLOOKUP($A56,$A$1:$P$52, 14, FALSE)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B57" s="12">
+        <f t="shared" ref="B57:B61" si="9">VLOOKUP($A57,$A$1:$P$52, 4, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="12">
+        <f t="shared" ref="C57:C61" si="10">VLOOKUP($A57,$A$1:$P$52, 9, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="12">
+        <f t="shared" ref="D57:D61" si="11">VLOOKUP($A57,$A$1:$P$52, 14, FALSE)</f>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B58" s="12">
+        <f t="shared" si="9"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C58" s="12">
+        <f t="shared" si="10"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D58" s="12">
+        <f t="shared" si="11"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B59" s="12">
+        <f t="shared" si="9"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C59" s="12">
+        <f t="shared" si="10"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D59" s="12">
+        <f t="shared" si="11"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B60" s="12">
+        <f t="shared" si="9"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C60" s="12">
+        <f t="shared" si="10"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D60" s="12">
+        <f t="shared" si="11"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B61" s="12">
+        <f t="shared" si="9"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C61" s="12">
+        <f t="shared" si="10"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D61" s="12">
+        <f t="shared" si="11"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3212,31 +4437,103 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
+      <c r="B65" s="8">
+        <f>_xlfn.XLOOKUP(A65,$A$2:$A$52, D$2:D$52)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C65" s="8">
+        <f>_xlfn.XLOOKUP($A65,$A$2:$A$52, I$2:I$52)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D65" s="8">
+        <f>_xlfn.XLOOKUP($A65,$A$2:$A$52, N$2:N$52)</f>
+        <v>-9181.0800000000163</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>25</v>
       </c>
+      <c r="B66" s="8">
+        <f t="shared" ref="B66:B70" si="12">_xlfn.XLOOKUP(A66,$A$2:$A$52, D$2:D$52)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="8">
+        <f t="shared" ref="C66:C70" si="13">_xlfn.XLOOKUP($A66,$A$2:$A$52, I$2:I$52)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="8">
+        <f t="shared" ref="D66:D70" si="14">_xlfn.XLOOKUP($A66,$A$2:$A$52, N$2:N$52)</f>
+        <v>-311228.08999999997</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>32</v>
       </c>
+      <c r="B67" s="8">
+        <f t="shared" si="12"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C67" s="8">
+        <f t="shared" si="13"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" si="14"/>
+        <v>-374962.91000000015</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>38</v>
       </c>
+      <c r="B68" s="8">
+        <f t="shared" si="12"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C68" s="8">
+        <f t="shared" si="13"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D68" s="8">
+        <f t="shared" si="14"/>
+        <v>-72.879999999888241</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>39</v>
       </c>
+      <c r="B69" s="8">
+        <f t="shared" si="12"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C69" s="8">
+        <f t="shared" si="13"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D69" s="8">
+        <f t="shared" si="14"/>
+        <v>-1724.9000000000233</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>55</v>
       </c>
+      <c r="B70" s="8">
+        <f t="shared" si="12"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C70" s="8">
+        <f t="shared" si="13"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D70" s="8">
+        <f t="shared" si="14"/>
+        <v>-82077.349999999627</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="6" t="s">
@@ -3357,7 +4654,7 @@
       <c r="F90" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3366,21 +4663,18 @@
         <v>73</v>
       </c>
       <c r="E91" s="5"/>
-      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>74</v>
       </c>
       <c r="E92" s="5"/>
-      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>75</v>
       </c>
       <c r="E93" s="5"/>
-      <c r="G93" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="6" t="s">
@@ -3403,7 +4697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B97" s="11" t="s">
         <v>0</v>
       </c>
@@ -3419,33 +4713,27 @@
       <c r="F97" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G97" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>73</v>
       </c>
       <c r="E98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>74</v>
       </c>
       <c r="E99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>75</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="I100" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/spreadsheets/metro_budget_exercise.xlsx
+++ b/spreadsheets/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgood\Documents\nss_data_analytics\projects\lookups-budget-marthahunter\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A495CBE-615E-4270-8E1D-546AD3006E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA331E7E-59B2-4067-A1E0-7E63A306DEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4437,15 +4437,15 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="12">
         <f>_xlfn.XLOOKUP(A65,$A$2:$A$52, D$2:D$52)</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="12">
         <f>_xlfn.XLOOKUP($A65,$A$2:$A$52, I$2:I$52)</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="12">
         <f>_xlfn.XLOOKUP($A65,$A$2:$A$52, N$2:N$52)</f>
         <v>-9181.0800000000163</v>
       </c>
@@ -4454,15 +4454,15 @@
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="12">
         <f t="shared" ref="B66:B70" si="12">_xlfn.XLOOKUP(A66,$A$2:$A$52, D$2:D$52)</f>
         <v>0</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="12">
         <f t="shared" ref="C66:C70" si="13">_xlfn.XLOOKUP($A66,$A$2:$A$52, I$2:I$52)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="12">
         <f t="shared" ref="D66:D70" si="14">_xlfn.XLOOKUP($A66,$A$2:$A$52, N$2:N$52)</f>
         <v>-311228.08999999997</v>
       </c>
@@ -4471,15 +4471,15 @@
       <c r="A67" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="12">
         <f t="shared" si="12"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="12">
         <f t="shared" si="13"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="12">
         <f t="shared" si="14"/>
         <v>-374962.91000000015</v>
       </c>
@@ -4488,15 +4488,15 @@
       <c r="A68" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="12">
         <f t="shared" si="12"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="12">
         <f t="shared" si="13"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="12">
         <f t="shared" si="14"/>
         <v>-72.879999999888241</v>
       </c>
@@ -4505,15 +4505,15 @@
       <c r="A69" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="12">
         <f t="shared" si="12"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="12">
         <f t="shared" si="13"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="12">
         <f t="shared" si="14"/>
         <v>-1724.9000000000233</v>
       </c>
@@ -4522,35 +4522,43 @@
       <c r="A70" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="12">
         <f t="shared" si="12"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="12">
         <f t="shared" si="13"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="12">
         <f t="shared" si="14"/>
         <v>-82077.349999999627</v>
       </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4558,30 +4566,102 @@
       <c r="A74" t="s">
         <v>24</v>
       </c>
+      <c r="B74" s="12">
+        <f>INDEX(D$2:D$52,MATCH(A74, A$2:A$52, 0))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C74" s="12">
+        <f>INDEX(I$2:I$52,MATCH($A74, $A$2:$A$52, 0))</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D74" s="12">
+        <f>INDEX(N$2:N$52,MATCH($A74, $A$2:$A$52, 0))</f>
+        <v>-9181.0800000000163</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>25</v>
       </c>
+      <c r="B75" s="12">
+        <f t="shared" ref="B75:B79" si="15">INDEX(D$2:D$52,MATCH(A75, A$2:A$52, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="12">
+        <f t="shared" ref="C75:C79" si="16">INDEX(I$2:I$52,MATCH($A75, $A$2:$A$52, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="12">
+        <f t="shared" ref="D75:D79" si="17">INDEX(N$2:N$52,MATCH($A75, $A$2:$A$52, 0))</f>
+        <v>-311228.08999999997</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>32</v>
       </c>
+      <c r="B76" s="12">
+        <f t="shared" si="15"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76" s="12">
+        <f t="shared" si="16"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D76" s="12">
+        <f t="shared" si="17"/>
+        <v>-374962.91000000015</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>38</v>
       </c>
+      <c r="B77" s="12">
+        <f t="shared" si="15"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77" s="12">
+        <f t="shared" si="16"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D77" s="12">
+        <f t="shared" si="17"/>
+        <v>-72.879999999888241</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>39</v>
       </c>
+      <c r="B78" s="12">
+        <f t="shared" si="15"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" si="16"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D78" s="12">
+        <f t="shared" si="17"/>
+        <v>-1724.9000000000233</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>55</v>
+      </c>
+      <c r="B79" s="12">
+        <f t="shared" si="15"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79" s="12">
+        <f t="shared" si="16"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D79" s="12">
+        <f t="shared" si="17"/>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">

--- a/spreadsheets/metro_budget_exercise.xlsx
+++ b/spreadsheets/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgood\Documents\nss_data_analytics\projects\lookups-budget-marthahunter\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA331E7E-59B2-4067-A1E0-7E63A306DEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD85446-8EBE-46B8-AE8A-BCDAFCE2B102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>Department</t>
   </si>
@@ -1197,7 +1197,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4673,6 +4673,9 @@
       <c r="A82" t="s">
         <v>0</v>
       </c>
+      <c r="B82" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B83" s="9" t="s">
@@ -4686,16 +4689,40 @@
       <c r="A84" t="s">
         <v>73</v>
       </c>
+      <c r="B84" s="8">
+        <f>INDEX($B$2:$B$52,MATCH($B$82,$A$2:$A$52,0))</f>
+        <v>356640100</v>
+      </c>
+      <c r="C84" s="8">
+        <f>INDEX($C$2:$C$52,MATCH($B$82,$A$2:$A$52,0))</f>
+        <v>341243679.13</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>74</v>
       </c>
+      <c r="B85" s="8">
+        <f>INDEX($G$2:$G$52,MATCH($B$82,$A$2:$A$52,0))</f>
+        <v>382685200</v>
+      </c>
+      <c r="C85" s="8">
+        <f>INDEX($H$2:H$52,MATCH($B$82,$A$2:$A$52,0))</f>
+        <v>346340810.81999999</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>75</v>
       </c>
+      <c r="B86" s="8">
+        <f>INDEX($L$2:$L$52,MATCH($B$82,$A$2:$A$52,0))</f>
+        <v>376548600</v>
+      </c>
+      <c r="C86" s="8">
+        <f>INDEX($M$2:$M$52,MATCH($B$82,$A$2:$A$52,0))</f>
+        <v>355279492.22999901</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="6" t="s">
@@ -4816,11 +4843,14 @@
       <c r="E100" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82" xr:uid="{E47E55E9-4B11-40EC-AAEF-A769876C5B4C}">
+      <formula1>A2:A52</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spreadsheets/metro_budget_exercise.xlsx
+++ b/spreadsheets/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgood\Documents\nss_data_analytics\projects\lookups-budget-marthahunter\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD85446-8EBE-46B8-AE8A-BCDAFCE2B102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E55A7-D4A9-49E8-BFB8-44DA78B32509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,7 +315,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,8 +462,16 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +657,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -813,7 +827,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -836,6 +850,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="43" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -895,6 +921,1103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Projected vs. Actual Budget</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Budget</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$B$84:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5847800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6223700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6207300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0ABC-4C95-9D00-A939F11F3DD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$C$84:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5772288.3300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5909077.9399999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6056976.6699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0ABC-4C95-9D00-A939F11F3DD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="2113971423"/>
+        <c:axId val="2114778655"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2113971423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114778655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2114778655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2113971423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="40000"/>
+        <a:lumOff val="60000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1F8BB1-3473-FF49-7770-9ACD89EE5E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1197,7 +2320,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4337,6 +5460,13 @@
         <f t="shared" ref="D57:D61" si="11">VLOOKUP($A57,$A$1:$P$52, 14, FALSE)</f>
         <v>-311228.08999999997</v>
       </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="18"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
@@ -4354,6 +5484,13 @@
         <f t="shared" si="11"/>
         <v>-374962.91000000015</v>
       </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="18"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
@@ -4371,8 +5508,18 @@
         <f t="shared" si="11"/>
         <v>-72.879999999888241</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="E59" s="18"/>
+      <c r="F59" s="16" t="str">
+        <f>B82</f>
+        <v>Criminal Court Clerk</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -4388,8 +5535,15 @@
         <f t="shared" si="11"/>
         <v>-1724.9000000000233</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="E60" s="18"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -4405,11 +5559,25 @@
         <f t="shared" si="11"/>
         <v>-82077.349999999627</v>
       </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="18"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="18"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" s="6" t="s">
@@ -4418,6 +5586,13 @@
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="18"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
@@ -4432,8 +5607,15 @@
       <c r="D64" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -4449,8 +5631,15 @@
         <f>_xlfn.XLOOKUP($A65,$A$2:$A$52, N$2:N$52)</f>
         <v>-9181.0800000000163</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -4466,8 +5655,15 @@
         <f t="shared" ref="D66:D70" si="14">_xlfn.XLOOKUP($A66,$A$2:$A$52, N$2:N$52)</f>
         <v>-311228.08999999997</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -4483,8 +5679,15 @@
         <f t="shared" si="14"/>
         <v>-374962.91000000015</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -4500,8 +5703,15 @@
         <f t="shared" si="14"/>
         <v>-72.879999999888241</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="18"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -4517,8 +5727,15 @@
         <f t="shared" si="14"/>
         <v>-1724.9000000000233</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -4534,21 +5751,42 @@
         <f t="shared" si="14"/>
         <v>-82077.349999999627</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="18"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="18"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -4561,8 +5799,15 @@
       <c r="D73" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -4578,8 +5823,15 @@
         <f>INDEX(N$2:N$52,MATCH($A74, $A$2:$A$52, 0))</f>
         <v>-9181.0800000000163</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="18"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -4595,8 +5847,15 @@
         <f t="shared" ref="D75:D79" si="17">INDEX(N$2:N$52,MATCH($A75, $A$2:$A$52, 0))</f>
         <v>-311228.08999999997</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="18"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -4612,8 +5871,15 @@
         <f t="shared" si="17"/>
         <v>-374962.91000000015</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="18"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -4629,8 +5895,15 @@
         <f t="shared" si="17"/>
         <v>-72.879999999888241</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="18"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -4646,8 +5919,15 @@
         <f t="shared" si="17"/>
         <v>-1724.9000000000233</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="18"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -4663,73 +5943,147 @@
         <f t="shared" si="17"/>
         <v>-82077.349999999627</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="18"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>0</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="18"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B83" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>73</v>
       </c>
       <c r="B84" s="8">
         <f>INDEX($B$2:$B$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>356640100</v>
+        <v>5847800</v>
       </c>
       <c r="C84" s="8">
         <f>INDEX($C$2:$C$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>341243679.13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+        <v>5772288.3300000001</v>
+      </c>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>74</v>
       </c>
       <c r="B85" s="8">
         <f>INDEX($G$2:$G$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>382685200</v>
+        <v>6223700</v>
       </c>
       <c r="C85" s="8">
         <f>INDEX($H$2:H$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>346340810.81999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+        <v>5909077.9399999902</v>
+      </c>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="18"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>75</v>
       </c>
       <c r="B86" s="8">
         <f>INDEX($L$2:$L$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>376548600</v>
+        <v>6207300</v>
       </c>
       <c r="C86" s="8">
         <f>INDEX($M$2:$M$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>355279492.22999901</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+        <v>6056976.6699999999</v>
+      </c>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="18"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="18"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -4745,7 +6099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B90" s="11" t="s">
         <v>0</v>
       </c>
@@ -4765,30 +6119,30 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>73</v>
       </c>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>74</v>
       </c>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>75</v>
       </c>
       <c r="E93" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -4843,6 +6197,9 @@
       <c r="E100" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F59:J60"/>
+  </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
@@ -4853,6 +6210,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/spreadsheets/metro_budget_exercise.xlsx
+++ b/spreadsheets/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgood\Documents\nss_data_analytics\projects\lookups-budget-marthahunter\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E55A7-D4A9-49E8-BFB8-44DA78B32509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69B5BFF-077F-442E-BA69-E0E8A016198F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -779,6 +779,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -827,7 +922,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -850,18 +945,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
-    <xf numFmtId="43" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="34" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="17" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="34" borderId="18" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="16" fillId="34" borderId="18" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1113,13 +1231,13 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5847800</c:v>
+                  <c:v>1552100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6223700</c:v>
+                  <c:v>1590700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6207300</c:v>
+                  <c:v>1579300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,13 +1362,13 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5772288.3300000001</c:v>
+                  <c:v>1315623.30999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5909077.9399999902</c:v>
+                  <c:v>1383905.98999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6056976.6699999999</c:v>
+                  <c:v>1337735.3199999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,15 +2102,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:colOff>1114426</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2319,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5460,15 +5578,12 @@
         <f t="shared" ref="D57:D61" si="11">VLOOKUP($A57,$A$1:$P$52, 14, FALSE)</f>
         <v>-311228.08999999997</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="18"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -5484,13 +5599,10 @@
         <f t="shared" si="11"/>
         <v>-374962.91000000015</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="18"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="17"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
@@ -5508,16 +5620,14 @@
         <f t="shared" si="11"/>
         <v>-72.879999999888241</v>
       </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="16" t="str">
+      <c r="F59" s="18" t="str">
         <f>B82</f>
-        <v>Criminal Court Clerk</v>
-      </c>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="18"/>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
@@ -5535,13 +5645,11 @@
         <f t="shared" si="11"/>
         <v>-1724.9000000000233</v>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="18"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="23"/>
     </row>
     <row r="61" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
@@ -5559,25 +5667,21 @@
         <f t="shared" si="11"/>
         <v>-82077.349999999627</v>
       </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="18"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="30"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="18"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="30"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" s="6" t="s">
@@ -5586,13 +5690,11 @@
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="18"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="30"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
@@ -5607,15 +5709,13 @@
       <c r="D64" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F64" s="31"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="30"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -5631,15 +5731,13 @@
         <f>_xlfn.XLOOKUP($A65,$A$2:$A$52, N$2:N$52)</f>
         <v>-9181.0800000000163</v>
       </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="18"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F65" s="31"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="30"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -5655,15 +5753,13 @@
         <f t="shared" ref="D66:D70" si="14">_xlfn.XLOOKUP($A66,$A$2:$A$52, N$2:N$52)</f>
         <v>-311228.08999999997</v>
       </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="18"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F66" s="31"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="30"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -5679,15 +5775,13 @@
         <f t="shared" si="14"/>
         <v>-374962.91000000015</v>
       </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="18"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F67" s="31"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="30"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -5703,15 +5797,13 @@
         <f t="shared" si="14"/>
         <v>-72.879999999888241</v>
       </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="18"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F68" s="31"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="30"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -5727,15 +5819,13 @@
         <f t="shared" si="14"/>
         <v>-1724.9000000000233</v>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="18"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F69" s="31"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="30"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -5751,42 +5841,36 @@
         <f t="shared" si="14"/>
         <v>-82077.349999999627</v>
       </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="18"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F70" s="31"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="30"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="18"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F71" s="31"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="30"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="18"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F72" s="31"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="30"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -5799,15 +5883,13 @@
       <c r="D73" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="18"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F73" s="31"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="30"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -5823,15 +5905,13 @@
         <f>INDEX(N$2:N$52,MATCH($A74, $A$2:$A$52, 0))</f>
         <v>-9181.0800000000163</v>
       </c>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="18"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F74" s="31"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="30"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -5847,15 +5927,13 @@
         <f t="shared" ref="D75:D79" si="17">INDEX(N$2:N$52,MATCH($A75, $A$2:$A$52, 0))</f>
         <v>-311228.08999999997</v>
       </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="18"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F75" s="31"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="30"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -5871,15 +5949,13 @@
         <f t="shared" si="17"/>
         <v>-374962.91000000015</v>
       </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="18"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F76" s="31"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="30"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -5895,15 +5971,13 @@
         <f t="shared" si="17"/>
         <v>-72.879999999888241</v>
       </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="18"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F77" s="31"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="30"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -5919,15 +5993,13 @@
         <f t="shared" si="17"/>
         <v>-1724.9000000000233</v>
       </c>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="18"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F78" s="31"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="30"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -5943,147 +6015,128 @@
         <f t="shared" si="17"/>
         <v>-82077.349999999627</v>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="18"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="18"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F79" s="31"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="30"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F80" s="31"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="30"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="18"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F81" s="31"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="30"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="18"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B83" s="9" t="s">
+      <c r="B82" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="34"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="30"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B83" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="18"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F83" s="31"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="30"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="32">
         <f>INDEX($B$2:$B$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>5847800</v>
-      </c>
-      <c r="C84" s="8">
+        <v>1552100</v>
+      </c>
+      <c r="C84" s="32">
         <f>INDEX($C$2:$C$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>5772288.3300000001</v>
-      </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="18"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1315623.30999999</v>
+      </c>
+      <c r="F84" s="31"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="30"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="32">
         <f>INDEX($G$2:$G$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>6223700</v>
-      </c>
-      <c r="C85" s="8">
+        <v>1590700</v>
+      </c>
+      <c r="C85" s="32">
         <f>INDEX($H$2:H$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>5909077.9399999902</v>
-      </c>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="18"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1383905.98999999</v>
+      </c>
+      <c r="F85" s="31"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="30"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="32">
         <f>INDEX($L$2:$L$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>6207300</v>
-      </c>
-      <c r="C86" s="8">
+        <v>1579300</v>
+      </c>
+      <c r="C86" s="32">
         <f>INDEX($M$2:$M$52,MATCH($B$82,$A$2:$A$52,0))</f>
-        <v>6056976.6699999999</v>
-      </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="18"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="18"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1337735.3199999901</v>
+      </c>
+      <c r="F86" s="31"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="30"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F87" s="31"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="30"/>
+    </row>
+    <row r="88" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="18"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F88" s="24"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -6099,7 +6152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B90" s="11" t="s">
         <v>0</v>
       </c>
@@ -6119,30 +6172,30 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>73</v>
       </c>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>74</v>
       </c>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>75</v>
       </c>
       <c r="E93" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>77</v>
       </c>
